--- a/Bot/Hans.xlsx
+++ b/Bot/Hans.xlsx
@@ -1,37 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigbu\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD56468-D350-4B37-B4ED-207F935ED1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="4230" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Table 1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Table 1" sheetId="2" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +69,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -398,83 +371,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Rating</t>
-        </is>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
       </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
+      <c r="B1" s="1" t="s">
+        <v>2</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="C1" t="s">
+        <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>12:10</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>12:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>20:12</t>
-        </is>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/Bot/Hans.xlsx
+++ b/Bot/Hans.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bigbu\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AD56468-D350-4B37-B4ED-207F935ED1E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="4230" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 1" sheetId="2" r:id="rId1"/>
+    <sheet r:id="rId1" sheetId="1" name="Hans"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -25,10 +19,10 @@
     <t>Rating</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Date</t>
   </si>
   <si>
-    <t>Date</t>
+    <t>Time</t>
   </si>
   <si>
     <t>Day</t>
@@ -37,7 +31,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,7 +44,9 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -70,16 +67,16 @@
     </border>
     <border>
       <left style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </right>
       <top style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
-        <color auto="1"/>
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -87,23 +84,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+  <cellXfs count="4">
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle xfId="0" builtinId="0" name="Normal"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -114,10 +114,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -144,82 +144,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -231,170 +231,199 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Bot/Hans.xlsx
+++ b/Bot/Hans.xlsx
@@ -1,63 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="4230" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet r:id="rId1" sheetId="1" name="Hans"/>
+    <sheet name="Hans" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Urban" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr fullCalcOnLoad="1"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Rating</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Day</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <name val="Calibri"/>
+      <b val="1"/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -67,45 +52,110 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF000000"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" builtinId="0" name="Normal"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14ac:slicerStyles xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -114,10 +164,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -155,71 +205,71 @@
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Times New Roman" script="Arab"/>
-        <a:font typeface="Times New Roman" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="MoolBoran" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Times New Roman" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
-        <a:font typeface="맑은 고딕" script="Hang"/>
-        <a:font typeface="宋体" script="Hans"/>
-        <a:font typeface="新細明體" script="Hant"/>
-        <a:font typeface="Arial" script="Arab"/>
-        <a:font typeface="Arial" script="Hebr"/>
-        <a:font typeface="Tahoma" script="Thai"/>
-        <a:font typeface="Nyala" script="Ethi"/>
-        <a:font typeface="Vrinda" script="Beng"/>
-        <a:font typeface="Shruti" script="Gujr"/>
-        <a:font typeface="DaunPenh" script="Khmr"/>
-        <a:font typeface="Tunga" script="Knda"/>
-        <a:font typeface="Raavi" script="Guru"/>
-        <a:font typeface="Euphemia" script="Cans"/>
-        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
-        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
-        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
-        <a:font typeface="MV Boli" script="Thaa"/>
-        <a:font typeface="Mangal" script="Deva"/>
-        <a:font typeface="Gautami" script="Telu"/>
-        <a:font typeface="Latha" script="Taml"/>
-        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
-        <a:font typeface="Kalinga" script="Orya"/>
-        <a:font typeface="Kartika" script="Mlym"/>
-        <a:font typeface="DokChampa" script="Laoo"/>
-        <a:font typeface="Iskoola Pota" script="Sinh"/>
-        <a:font typeface="Mongolian Baiti" script="Mong"/>
-        <a:font typeface="Arial" script="Viet"/>
-        <a:font typeface="Microsoft Uighur" script="Uigh"/>
-        <a:font typeface="Sylfaen" script="Geor"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -247,7 +297,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
@@ -270,11 +320,11 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin scaled="1" ang="16200000"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr">
               <a:shade val="9500"/>
@@ -283,13 +333,13 @@
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
-        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -299,7 +349,7 @@
       <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="38000"/>
               </a:srgbClr>
@@ -308,7 +358,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -317,7 +367,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="35000"/>
               </a:srgbClr>
@@ -325,10 +375,10 @@
           </a:effectLst>
           <a:scene3d>
             <a:camera prst="orthographicFront">
-              <a:rot rev="0" lon="0" lat="0"/>
+              <a:rot lat="0" lon="0" rev="0"/>
             </a:camera>
-            <a:lightRig dir="t" rig="threePt">
-              <a:rot rev="1200000" lon="0" lat="0"/>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
             </a:lightRig>
           </a:scene3d>
           <a:sp3d>
@@ -393,37 +443,223 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="0"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="2" max="2" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="3" width="13.576428571428572" customWidth="1" bestFit="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="20.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-11-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[datetime.time(20, 31, 31, 792000)]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Index(['Friday'], dtype='object')</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>4</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-11-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[datetime.time(20, 31, 35, 898000)]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Index(['Friday'], dtype='object')</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>10</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2022-11-18 00:00:00</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[datetime.time(20, 31, 40, 605000)]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Index(['Friday'], dtype='object')</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>[datetime.date(2022, 11, 18)]</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[datetime.time(20, 38, 12, 655000)]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Index(['Friday'], dtype='object')</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>[datetime.date(2022, 11, 18)]</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[datetime.time(20, 38, 17, 505000)]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Index(['Friday'], dtype='object')</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="2" t="inlineStr">
+        <is>
+          <t>Rating</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>Time</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>Day</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>[datetime.date(2022, 11, 18)]</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[datetime.time(20, 38, 9, 480000)]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Index(['Friday'], dtype='object')</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>[datetime.date(2022, 11, 18)]</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[datetime.time(20, 38, 13, 49000)]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Index(['Friday'], dtype='object')</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Bot/Hans.xlsx
+++ b/Bot/Hans.xlsx
@@ -1,48 +1,124 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40b8ed1450762d97/Documents/GitHub/RNG-bot/Bot/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_91F5A94594E6A04BB59F37B525D28A50A28E6847" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B37AA85-D943-4245-A726-1912048D73DD}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="4230" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28920" yWindow="4230" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hans" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Urban" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Hans" sheetId="1" r:id="rId1"/>
+    <sheet name="Urban" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Day</t>
+  </si>
+  <si>
+    <t>2022-11-18 00:00:00</t>
+  </si>
+  <si>
+    <t>[datetime.time(20, 31, 31, 792000)]</t>
+  </si>
+  <si>
+    <t>Index(['Friday'], dtype='object')</t>
+  </si>
+  <si>
+    <t>[datetime.time(20, 31, 35, 898000)]</t>
+  </si>
+  <si>
+    <t>[datetime.time(20, 31, 40, 605000)]</t>
+  </si>
+  <si>
+    <t>[datetime.date(2022, 11, 18)]</t>
+  </si>
+  <si>
+    <t>[datetime.time(20, 38, 12, 655000)]</t>
+  </si>
+  <si>
+    <t>[datetime.time(20, 38, 17, 505000)]</t>
+  </si>
+  <si>
+    <t>[datetime.date(2022, 11, 19)]</t>
+  </si>
+  <si>
+    <t>[datetime.time(11, 38, 14, 779000)]</t>
+  </si>
+  <si>
+    <t>Index(['Saturday'], dtype='object')</t>
+  </si>
+  <si>
+    <t>[datetime.time(11, 38, 25, 664000)]</t>
+  </si>
+  <si>
+    <t>[datetime.time(11, 40, 23, 538000)]</t>
+  </si>
+  <si>
+    <t>[datetime.time(20, 38, 9, 480000)]</t>
+  </si>
+  <si>
+    <t>[datetime.time(20, 38, 13, 49000)]</t>
+  </si>
+  <si>
+    <t>[datetime.time(11, 38, 59, 33000)]</t>
+  </si>
+  <si>
+    <t>[datetime.time(11, 39, 9, 316000)]</t>
+  </si>
+  <si>
+    <t>[datetime.time(11, 39, 31, 474000)]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -65,97 +141,30 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -443,139 +452,140 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="44.26171875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Rating</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-11-18 00:00:00</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[datetime.time(20, 31, 31, 792000)]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Index(['Friday'], dtype='object')</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-11-18 00:00:00</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[datetime.time(20, 31, 35, 898000)]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Index(['Friday'], dtype='object')</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
         <v>10</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2022-11-18 00:00:00</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[datetime.time(20, 31, 40, 605000)]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Index(['Friday'], dtype='object')</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
         <v>5</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>[datetime.date(2022, 11, 18)]</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>[datetime.time(20, 38, 12, 655000)]</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Index(['Friday'], dtype='object')</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>[datetime.date(2022, 11, 18)]</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>[datetime.time(20, 38, 17, 505000)]</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Index(['Friday'], dtype='object')</t>
-        </is>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -584,79 +594,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12:M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="2" max="2" width="43.20703125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="2" t="inlineStr">
-        <is>
-          <t>Rating</t>
-        </is>
-      </c>
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>Date</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>Day</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
         <v>5</v>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>[datetime.date(2022, 11, 18)]</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>[datetime.time(20, 38, 9, 480000)]</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Index(['Friday'], dtype='object')</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+      <c r="B2" s="2">
+        <v>44883</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
         <v>5</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>[datetime.date(2022, 11, 18)]</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>[datetime.time(20, 38, 13, 49000)]</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Index(['Friday'], dtype='object')</t>
-        </is>
+      <c r="B3" s="2">
+        <v>44883</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <v>10</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Bot/Hans.xlsx
+++ b/Bot/Hans.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/40b8ed1450762d97/Documents/GitHub/RNG-bot/Bot/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_91F5A94594E6A04BB59F37B525D28A50A28E6847" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9B37AA85-D943-4245-A726-1912048D73DD}"/>
+  <xr:revisionPtr revIDLastSave="8" documentId="11_CDD98B2617B039BAA9DC2B762EF52AD5ABFAA955" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{833CB167-CDA3-46B1-BC24-31EA37813C94}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="4230" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="17">
   <si>
     <t>Rating</t>
   </si>
@@ -35,21 +35,9 @@
     <t>Day</t>
   </si>
   <si>
-    <t>2022-11-18 00:00:00</t>
-  </si>
-  <si>
-    <t>[datetime.time(20, 31, 31, 792000)]</t>
-  </si>
-  <si>
     <t>Index(['Friday'], dtype='object')</t>
   </si>
   <si>
-    <t>[datetime.time(20, 31, 35, 898000)]</t>
-  </si>
-  <si>
-    <t>[datetime.time(20, 31, 40, 605000)]</t>
-  </si>
-  <si>
     <t>[datetime.date(2022, 11, 18)]</t>
   </si>
   <si>
@@ -74,10 +62,7 @@
     <t>[datetime.time(11, 40, 23, 538000)]</t>
   </si>
   <si>
-    <t>[datetime.time(20, 38, 9, 480000)]</t>
-  </si>
-  <si>
-    <t>[datetime.time(20, 38, 13, 49000)]</t>
+    <t>[datetime.time(11, 55, 8, 372000)]</t>
   </si>
   <si>
     <t>[datetime.time(11, 38, 59, 33000)]</t>
@@ -93,16 +78,18 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -118,12 +105,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -150,7 +152,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -453,83 +457,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="44.26171875" customWidth="1"/>
+    <col min="2" max="2" width="24.1015625" customWidth="1"/>
+    <col min="3" max="3" width="39.3671875" customWidth="1"/>
+    <col min="4" max="4" width="49.26171875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
@@ -537,55 +545,27 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>13</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -595,10 +575,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12:M12"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -622,72 +602,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2">
-        <v>44883</v>
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>44883</v>
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5">
-        <v>10</v>
-      </c>
-      <c r="B5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
